--- a/order_generation/PO_excel_selected/AMCB-01.xlsx
+++ b/order_generation/PO_excel_selected/AMCB-01.xlsx
@@ -15,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0&quot;PCS&quot;"/>
     <numFmt numFmtId="165" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -256,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -421,6 +422,9 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1355,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -1397,7 +1401,11 @@
           <t>供货商：</t>
         </is>
       </c>
-      <c r="B3" s="21" t="inlineStr"/>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>宁波瑾秀制刷科技有限公司</t>
+        </is>
+      </c>
       <c r="C3" s="20" t="n"/>
       <c r="D3" s="20" t="n"/>
       <c r="E3" s="20" t="n"/>
@@ -1419,7 +1427,11 @@
           <t>电话：</t>
         </is>
       </c>
-      <c r="B4" s="20" t="inlineStr"/>
+      <c r="B4" s="20" t="inlineStr">
+        <is>
+          <t>电话: +86-574-27889688 传真: +86-574-27889677</t>
+        </is>
+      </c>
       <c r="C4" s="20" t="n"/>
       <c r="D4" s="20" t="n"/>
       <c r="E4" s="20" t="n"/>
@@ -1508,14 +1520,15 @@
       </c>
       <c r="C7" s="28" t="inlineStr">
         <is>
-          <t>尼龙卷发定型梳蓝色款式01</t>
-        </is>
-      </c>
-      <c r="D7" s="59" t="n">
-        <v>0</v>
+          <t>2175，值直径0.8mm尼龙针+仿猪鬃，出锋17mm，
+产品颜色做204C，染头颜色204c</t>
+        </is>
+      </c>
+      <c r="D7" s="61" t="n">
+        <v>25569.33362927083</v>
       </c>
       <c r="E7" s="60" t="n">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="F7" s="60">
         <f>D7*E7</f>
@@ -1628,7 +1641,11 @@
       <c r="C14" s="44" t="n"/>
       <c r="D14" s="44" t="n"/>
       <c r="E14" s="44" t="n"/>
-      <c r="F14" s="44" t="inlineStr"/>
+      <c r="F14" s="44" t="inlineStr">
+        <is>
+          <t>204C.png</t>
+        </is>
+      </c>
       <c r="G14" s="44" t="inlineStr"/>
       <c r="H14" s="44" t="n"/>
     </row>
@@ -1691,7 +1708,7 @@
     <row r="19" ht="17.25" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="49" t="inlineStr">
         <is>
-          <t>备注：放2%余量</t>
+          <t>1：表面不得有污渍</t>
         </is>
       </c>
       <c r="C19" s="48" t="n"/>
@@ -1702,7 +1719,11 @@
       <c r="H19" s="48" t="n"/>
     </row>
     <row r="20" ht="17.25" customFormat="1" customHeight="1" s="4">
-      <c r="A20" s="49" t="inlineStr"/>
+      <c r="A20" s="49" t="inlineStr">
+        <is>
+          <t>2：毛丝切面整齐</t>
+        </is>
+      </c>
       <c r="C20" s="48" t="n"/>
       <c r="D20" s="48" t="n"/>
       <c r="E20" s="48" t="n"/>
@@ -1711,7 +1732,11 @@
       <c r="H20" s="48" t="n"/>
     </row>
     <row r="21" ht="16.5" customFormat="1" customHeight="1" s="4">
-      <c r="A21" s="49" t="inlineStr"/>
+      <c r="A21" s="49" t="inlineStr">
+        <is>
+          <t>3：外箱单边不得超过60cm，重量不得超过20公斤，装箱数不得超过100，不能有尾箱</t>
+        </is>
+      </c>
       <c r="C21" s="48" t="n"/>
       <c r="D21" s="48" t="n"/>
       <c r="E21" s="47" t="n"/>
@@ -1720,7 +1745,11 @@
       <c r="H21" s="48" t="n"/>
     </row>
     <row r="22" ht="16.5" customFormat="1" customHeight="1" s="4">
-      <c r="A22" s="49" t="inlineStr"/>
+      <c r="A22" s="49" t="inlineStr">
+        <is>
+          <t>4：尼龙丝针注意不要大量明显弯曲</t>
+        </is>
+      </c>
       <c r="C22" s="48" t="n"/>
       <c r="D22" s="48" t="n"/>
       <c r="E22" s="48" t="n"/>
@@ -1729,7 +1758,11 @@
       <c r="H22" s="48" t="n"/>
     </row>
     <row r="23" ht="16.5" customFormat="1" customHeight="1" s="4">
-      <c r="A23" s="49" t="inlineStr"/>
+      <c r="A23" s="49" t="inlineStr">
+        <is>
+          <t>5：染头不能有坑(2个以上），（有坑一律次品），不得有漏染</t>
+        </is>
+      </c>
       <c r="C23" s="47" t="n"/>
       <c r="D23" s="48" t="n"/>
       <c r="E23" s="48" t="n"/>
@@ -1738,7 +1771,11 @@
       <c r="H23" s="48" t="n"/>
     </row>
     <row r="24" ht="20.45" customFormat="1" customHeight="1" s="4">
-      <c r="A24" s="49" t="inlineStr"/>
+      <c r="A24" s="49" t="inlineStr">
+        <is>
+          <t>6：染头不得粘连</t>
+        </is>
+      </c>
       <c r="C24" s="50" t="n"/>
       <c r="D24" s="47" t="n"/>
       <c r="E24" s="51" t="n"/>
@@ -1748,7 +1785,11 @@
       <c r="I24" s="5" t="n"/>
     </row>
     <row r="25" ht="20.45" customFormat="1" customHeight="1" s="4">
-      <c r="A25" s="49" t="inlineStr"/>
+      <c r="A25" s="49" t="inlineStr">
+        <is>
+          <t>7：每个外箱需要贴2个标签FBA标签一个，货代标签一个</t>
+        </is>
+      </c>
       <c r="C25" s="50" t="n"/>
       <c r="D25" s="47" t="n"/>
       <c r="E25" s="51" t="n"/>
@@ -1835,16 +1876,9 @@
     <row r="34" ht="21" customFormat="1" customHeight="1" s="6">
       <c r="H34" s="15" t="n"/>
     </row>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
     <row r="38">
       <c r="H38" s="15" t="n"/>
     </row>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11" t="n"/>
       <c r="B43" s="13" t="n"/>
@@ -1945,7 +1979,6 @@
       <c r="A67" s="11" t="n"/>
       <c r="B67" s="13" t="n"/>
     </row>
-    <row r="68"/>
     <row r="69" ht="17.25" customHeight="1">
       <c r="B69" s="9" t="inlineStr">
         <is>
@@ -1973,42 +2006,25 @@
       </c>
       <c r="F70" s="14" t="n"/>
     </row>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
     <row r="80">
       <c r="H80" s="15" t="n"/>
     </row>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.78740157480315" bottom="0.590551181102362" header="0.511811023622047" footer="0.511811023622047"/>
